--- a/input/meas/UNCCD/UNCCD.xlsx
+++ b/input/meas/UNCCD/UNCCD.xlsx
@@ -1,18 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanis\Documents\scripts\IPBES-Data\IPBES_Data_Indicators\input\meas\UNCCD\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A6610E-9DB2-46FC-A397-B9E4600EA0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="28680" yWindow="-7605" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="unccd" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="sdg" sheetId="2" r:id="rId5"/>
+    <sheet name="unccd" sheetId="3" r:id="rId1"/>
+    <sheet name="sdg" sheetId="2" r:id="rId2"/>
+    <sheet name="indicators" sheetId="1" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="107">
   <si>
     <t>id</t>
   </si>
@@ -113,9 +123,6 @@
     <t>Expected impact 3.2 Communities’ resilience to drought is increased.</t>
   </si>
   <si>
-    <t>UNCCD_SO4_I1</t>
-  </si>
-  <si>
     <t>Strategic objective 4: To generate global environmental benefits through effective implementation of the UNCCD</t>
   </si>
   <si>
@@ -125,18 +132,12 @@
     <t>SO 4-1 Trends in carbon stocks above and below ground</t>
   </si>
   <si>
-    <t>UNCCD_SO4_I2</t>
-  </si>
-  <si>
     <t>Expected impact 4.2 Synergies with other multilateral environmental agreements and processes are enhanced.</t>
   </si>
   <si>
     <t>SO 4-2 Trends in abundance and distribution of selected species</t>
   </si>
   <si>
-    <t>UNCCD_SO5_I1</t>
-  </si>
-  <si>
     <t>Strategic objective 5: To mobilize substantial and additional financial and non-financial resources to support the implementation of the Convention by building effective partnerships at global and national level</t>
   </si>
   <si>
@@ -146,16 +147,10 @@
     <t>SO 5-1 Trends in international bilateral and multilateral official development assistance</t>
   </si>
   <si>
-    <t>UNCCD_SO5_I2</t>
-  </si>
-  <si>
     <t>Expected impact 5.2 International support is provided for implementing effective and targeted capacity-building and “on-the-ground interventions” in affected country Parties to support the implementation of the Convention, including through North–South, South–South and triangular cooperation.</t>
   </si>
   <si>
     <t>SO 5-2 Trends in domestic public resources</t>
-  </si>
-  <si>
-    <t>UNCCD_SO5_I3</t>
   </si>
   <si>
     <t>Expected impact 5.3 Extensive efforts are implemented to promote technology transfer, especially on favourable terms and including on concessional and preferential terms, as mutually agreed, and to mobilize other non-financial resources.</t>
@@ -178,11 +173,11 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Roboto, sans-serif"/>
-        <b/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>https://www.unccd.int/convention/governance/strategic-framework-2018-2030</t>
     </r>
@@ -207,33 +202,198 @@
   </si>
   <si>
     <t>future source of information.</t>
+  </si>
+  <si>
+    <t>UNCCD_SO5_I5</t>
+  </si>
+  <si>
+    <t>UNCCD_SO4_I4</t>
+  </si>
+  <si>
+    <t>indic_id</t>
+  </si>
+  <si>
+    <t>SO 1-1</t>
+  </si>
+  <si>
+    <t>Trends in land cover</t>
+  </si>
+  <si>
+    <t>SO 1-2</t>
+  </si>
+  <si>
+    <t>Trends in land productivity or functioning of the land</t>
+  </si>
+  <si>
+    <t>SO 1-3</t>
+  </si>
+  <si>
+    <t>Trends in carbon stocks above and below ground</t>
+  </si>
+  <si>
+    <t>SO 2-1</t>
+  </si>
+  <si>
+    <t>SO 2-2</t>
+  </si>
+  <si>
+    <t>Trends in access to safe drinking water in affected areas</t>
+  </si>
+  <si>
+    <t>SO 4-1</t>
+  </si>
+  <si>
+    <t>SO 4-2</t>
+  </si>
+  <si>
+    <t>Trends in abundance and distribution of selected species</t>
+  </si>
+  <si>
+    <t>SO 5-1</t>
+  </si>
+  <si>
+    <t>Trends in international bilateral and multilateral official development assistance</t>
+  </si>
+  <si>
+    <t>SO 5-2</t>
+  </si>
+  <si>
+    <t>Trends in domestic public resources</t>
+  </si>
+  <si>
+    <t>SO 5-3</t>
+  </si>
+  <si>
+    <t>Trends in number of co-financing partners</t>
+  </si>
+  <si>
+    <t>SO 5-4</t>
+  </si>
+  <si>
+    <t>Resources mobilized from innovative sources of finance, including from the private sector</t>
+  </si>
+  <si>
+    <t>SO 5-5</t>
+  </si>
+  <si>
+    <t>SO 5-6</t>
+  </si>
+  <si>
+    <t>SO 5-7</t>
+  </si>
+  <si>
+    <t>UNCCD_SO1.1_1</t>
+  </si>
+  <si>
+    <t>Trends in population living below the relative poverty line and/or income inequality in affected areas</t>
+  </si>
+  <si>
+    <t>Total amount of approved funding for developing countries and countries with economies in transition to promote the development, transfer, dissemination and diffusion of environmentally sound technologies</t>
+  </si>
+  <si>
+    <t>Number of science and/or technology cooperation agreements and programmes between countries, by type of cooperation</t>
+  </si>
+  <si>
+    <t>United States dollar value of financial and technical assistance, including through North–South, South–South and triangular cooperation, committed to developing countries and countries with economies in transition</t>
+  </si>
+  <si>
+    <t>UNCCD_SO1.1_2</t>
+  </si>
+  <si>
+    <t>UNCCD_SO1.1_3</t>
+  </si>
+  <si>
+    <t>UNCCD_SO2.1_4</t>
+  </si>
+  <si>
+    <t>UNCCD_SO2.2_5</t>
+  </si>
+  <si>
+    <t>UNCCD_SO3.1_6</t>
+  </si>
+  <si>
+    <t>UNCCD_SO3.2_7</t>
+  </si>
+  <si>
+    <t>UNCCD_SO4.1_8</t>
+  </si>
+  <si>
+    <t>UNCCD_SO4.2_9</t>
+  </si>
+  <si>
+    <t>UNCCD_SO5.1_10</t>
+  </si>
+  <si>
+    <t>UNCCD_SO5.2_11</t>
+  </si>
+  <si>
+    <t>UNCCD_SO5.3_12</t>
+  </si>
+  <si>
+    <t>sdg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report on achievements made towards reaching the Sustainable Development Goal (SDG) 17 “Strengthen the means of implementation and revitalize the global partnership for sustainable development” and particularly SDG targets related to technology and capacity-building. </t>
+  </si>
+  <si>
+    <t>UNCCD_SO5.4_13</t>
+  </si>
+  <si>
+    <t>UNCCD_SO5.5_14</t>
+  </si>
+  <si>
+    <t>UNCCD_SO5.6_15</t>
+  </si>
+  <si>
+    <t>UNCCD_SO5.7_16</t>
+  </si>
+  <si>
+    <t>SDG17</t>
+  </si>
+  <si>
+    <t>verbatim_indic_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF1155CC"/>
+      <name val="Roboto, sans-serif"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -241,7 +401,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -251,43 +411,41 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -477,24 +635,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0D3370-85E5-440C-AC40-1E78D24A42C5}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="31.5"/>
-    <col customWidth="1" min="3" max="3" width="116.13"/>
+    <col min="1" max="2" width="31.44140625" customWidth="1"/>
+    <col min="3" max="3" width="116.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="13.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,8 +670,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="13.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -522,7 +688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" ht="13.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -536,7 +702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" ht="13.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -550,7 +716,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" ht="13.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -561,7 +727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" ht="13.2">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -575,7 +741,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" ht="13.2">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -589,7 +755,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" ht="13.2">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -600,7 +766,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" ht="13.2">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -611,7 +777,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" ht="13.2">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -625,7 +791,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" ht="13.2">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -639,156 +805,443 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" ht="13.2">
       <c r="A12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="13.2">
+      <c r="A13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="13.2">
+      <c r="A14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="13.2">
+      <c r="A15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="1" t="s">
+    </row>
+    <row r="16" spans="1:5" ht="13.2">
+      <c r="A16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="1" t="s">
+    </row>
+    <row r="17" spans="1:5" ht="13.2">
+      <c r="A17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="1" t="s">
+    </row>
+    <row r="18" spans="1:5" ht="13.2">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="D18" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="E18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="13.2">
+      <c r="A19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="D19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="E19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="13.2">
+      <c r="A20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="D20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B21" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="D17" s="1" t="s">
+      <c r="C21" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18">
-      <c r="D18" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="D19" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="D20" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="C23" s="4"/>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+      <c r="C23" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B21"/>
+    <hyperlink ref="B21" r:id="rId1" xr:uid="{A5692B7F-54FE-4F20-8B4C-F91F1647DE3F}"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="31.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="13.2">
+      <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="13.2">
       <c r="A2" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>83</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="13.2">
       <c r="A3" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>88</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="13.2">
       <c r="A4" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>89</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="13.2">
       <c r="A5" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>90</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="13.2">
       <c r="A6" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="13.2">
+      <c r="A7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="13.2">
+      <c r="A8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="13.2">
+      <c r="A9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="13.2">
+      <c r="A10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="13.2">
+      <c r="A11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="13.2">
+      <c r="A12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="13.2">
+      <c r="A13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="13.2">
+      <c r="A14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="13.2">
+      <c r="A15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="13.2">
+      <c r="A16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="13.2">
+      <c r="A17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B18" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>